--- a/static/data/python/sample exams/Clinton/Clinton_exam_sample_004.xlsx
+++ b/static/data/python/sample exams/Clinton/Clinton_exam_sample_004.xlsx
@@ -31,322 +31,328 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295037EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Reactor pressure effects on reactor power</t>
-  </si>
-  <si>
-    <t>(295016AK2.08) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) Isolation condensers (Nine Mile Point 1, Dresden)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295001AA1.07) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) Nuclear boiler instrumentation system </t>
-  </si>
-  <si>
-    <t>(295004AA2.03) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery parameters</t>
-  </si>
-  <si>
-    <t>(295038EK3.05) Knowledge of the reasons for the following responses or actions as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.5 / 45.6) Reactor shutdown/SCRAM</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295027EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Primary containment integrity</t>
-  </si>
-  <si>
-    <t>(295026EK2.12) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Suppression pool makeup</t>
-  </si>
-  <si>
-    <t>(600000AA1.05) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6): Plant and control room ventilation systems</t>
-  </si>
-  <si>
-    <t>(295025EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295031EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.5 / 45.6) Spray cooling</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295021AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Natural circulation</t>
-  </si>
-  <si>
-    <t>(295003AK2.04) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) AC electrical loads</t>
-  </si>
-  <si>
-    <t>(295023AA1.04) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) Radiation monitoring equipment</t>
-  </si>
-  <si>
-    <t>(295005AA2.03) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Turbine valve position</t>
-  </si>
-  <si>
-    <t>(700000AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Reactor and turbine trip criteria</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295019AA1.01) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) Backup air supply</t>
-  </si>
-  <si>
-    <t>(295010AA1.08) Ability to operate and/or monitor the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Component cooling water</t>
-  </si>
-  <si>
-    <t>(295034EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Source of high radiation levels</t>
-  </si>
-  <si>
-    <t>(295035EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.5 / 45.6) Secondary containment ventilation alignment</t>
-  </si>
-  <si>
-    <t>(295032) (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE (G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295002AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.8 to 41.10) Loss of heat sink</t>
-  </si>
-  <si>
-    <t>(295007AK2.01) Knowledge of the relationship between the (APE 7) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(264000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.5 / 45.5) Fuel consumption rate</t>
-  </si>
-  <si>
-    <t>(262002A4.01) Ability to manually operate and/or monitor the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) in the control room: (CFR: 41.7 / 45.5 to 45.8) Transfer of power sources</t>
-  </si>
-  <si>
-    <t>(211000K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.5 / 45.3) Accumulator operation</t>
-  </si>
-  <si>
-    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.4.2) EMERGENCY PROCEDURES / PLAN Knowledge of system setpoints, interlocks and automatic actions associated with emergency and abnormal operating procedure entry conditions (CFR: 41.7 / 45.7 / 45.8)</t>
-  </si>
-  <si>
-    <t>(212000K4.13) Knowledge of (SF7 RPS) REACTOR PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Underfrequency, overvoltage, and undervoltage protection</t>
-  </si>
-  <si>
-    <t>(203000K3.02) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(263000A2.02) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of ventilation during charging</t>
-  </si>
-  <si>
-    <t>(215005K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.7 / 45.7) TIP</t>
-  </si>
-  <si>
-    <t>(239002K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main steam system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(209002A3.02) Ability to monitor automatic operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Pump start </t>
-  </si>
-  <si>
-    <t>(218000K2.01) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) ADS logic</t>
-  </si>
-  <si>
-    <t>(205000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.5 / 45.5) SDC/RHR pump flow</t>
-  </si>
-  <si>
-    <t>(259002A4.06) Ability to manually operate and/or monitor the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Differential pressure/single/three element control selector switch</t>
-  </si>
-  <si>
-    <t>(209001K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (291006K1.01) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Startup/shutdown of a heat exchanger</t>
-  </si>
-  <si>
-    <t>(215004K4.03) Knowledge of (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Gamma compensation</t>
-  </si>
-  <si>
-    <t>(215003K3.03) Knowledge of the effect that a loss or malfunction of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RCIS (BWR 6)</t>
-  </si>
-  <si>
-    <t>(217000A2.12) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve openings due to malfunction(s)</t>
-  </si>
-  <si>
-    <t>(262001K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) DC power</t>
-  </si>
-  <si>
-    <t>(300000K1.28) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 IA) INSTRUMENT AIR SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 / 45.8) Standby gas treatment system</t>
-  </si>
-  <si>
-    <t>(510000A3.01) Ability to monitor automatic operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.7 / 45.5) Pump starts</t>
-  </si>
-  <si>
-    <t>(400000K2.01) (SF8 CCS) COMPONENT COOLING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) CCW pumps</t>
+    <t>(295030EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(295037EK2.06) Knowledge of the relationship between the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN and the following systems or components: (CFR: 41.7 / 41.8 / 45.8) CRD mechanisms</t>
+  </si>
+  <si>
+    <t>(295004AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Redundant DC power supplies</t>
+  </si>
+  <si>
+    <t>(700000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Actions contained in abnormal operating procedure for voltage and grid disturbances</t>
+  </si>
+  <si>
+    <t>(295005AA1.07) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295023AA2.04) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Occurrence of fuel handling accident</t>
+  </si>
+  <si>
+    <t>(295025EK2.10) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Plant process computer/parameter display systems</t>
+  </si>
+  <si>
+    <t>(295024EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Containment building integrity (Mark III)</t>
+  </si>
+  <si>
+    <t>(295016AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295026EA1.06) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) RHR/LPCI</t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295027EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment temperature</t>
+  </si>
+  <si>
+    <t>(295006AK2.01) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) RPS</t>
+  </si>
+  <si>
+    <t>(295019AK2.21) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Recirculation system</t>
+  </si>
+  <si>
+    <t>(295031EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.5 / 45.6) Core submergence</t>
+  </si>
+  <si>
+    <t>(295003AA1.06) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) AC electrical loads</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(600000AA2.04) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) The fire\u2019s extent of potential operational damage to plant equipment</t>
+  </si>
+  <si>
+    <t>(295001AK2.01) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Recirculation system</t>
+  </si>
+  <si>
+    <t>(295009AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295012AA1.03) Ability to operate and/or monitor the following as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.7 / 45.6) Drywell pressure</t>
+  </si>
+  <si>
+    <t>(295022) (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS (G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295017AA2.01) Ability to determine and/or interpret the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Offsite release rate</t>
+  </si>
+  <si>
+    <t>(295035EK2.04) Knowledge of the relationship between the (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Blow-out panels</t>
+  </si>
+  <si>
+    <t>(295020AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.8 to 41.10) Water chemistry</t>
+  </si>
+  <si>
+    <t>(205000A3.01) Ability to monitor automatic operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(300000K4.04) Knowledge of (SF8 IA) INSTRUMENT AIR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Containment isolation</t>
+  </si>
+  <si>
+    <t>(209001A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) System lineup</t>
+  </si>
+  <si>
+    <t>(217000A4.13) Ability to manually operate and/or monitor the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Manual initiation</t>
+  </si>
+  <si>
+    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(400000K1.19) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 to 45.8) Reactor feedwater system</t>
+  </si>
+  <si>
+    <t>(262001K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Breaker control power</t>
+  </si>
+  <si>
+    <t>(215005A2.10) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Changes in void concentration</t>
+  </si>
+  <si>
+    <t>(259002K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.7 / 45.7) Reactor feedwater flow input</t>
+  </si>
+  <si>
+    <t>(209002K2.03) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Initiation logic</t>
+  </si>
+  <si>
+    <t>(215004K3.03) Knowledge of the effect that a loss or malfunction of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RCIS (BWR 6)</t>
+  </si>
+  <si>
+    <t>(211000A3.09) Ability to monitor automatic operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.7 / 45.7) Pump trip</t>
+  </si>
+  <si>
+    <t>(262002K4.01) Knowledge of (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) design features and/or interlocks that provide for the following: (CFR: 41.7) Transfer of power supplies</t>
   </si>
   <si>
     <t>(264000A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.5 / 45.5) Gas generator speed</t>
   </si>
   <si>
-    <t>(262002K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(211000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.5 / 45.3) Effects of the moderator temperature coefficient of reactivity on boron</t>
-  </si>
-  <si>
-    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.4.39) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities in emergency plan implementing procedures (CFR: 41.10 / 45.11)</t>
-  </si>
-  <si>
-    <t>(290003A3.01) Ability to monitor automatic operation of the (SF9 CRV) CONTROL ROOM VENTILATION including: (CFR: 41.7 / 45.7) Initiation/reconfiguration</t>
-  </si>
-  <si>
-    <t>(219000K2.02) (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE Knowledge of electrical power supplies to the following: (CFR: 41.7) Pumps</t>
-  </si>
-  <si>
-    <t>(201003A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM including: (CFR: 41.1-6 / 45.1-6) CRD mechanism temperature</t>
-  </si>
-  <si>
-    <t>(233000A4.02) Ability to manually operate and/or monitor the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP in the control room: (CFR: 41.7 / 45.5 to 45.8) Fuel pool cooling system valves</t>
-  </si>
-  <si>
-    <t>(256000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 CDS) CONDENSATE SYSTEM: (CFR: 41.5 / 45.3) Heat exchanger level operation</t>
-  </si>
-  <si>
-    <t>(290001) (SF5 SC) SECONDARY CONTAINMENT (291002K1.11) SENSORS AND DETECTORS (CFR: 41.7) (PRESSURE) Effects of operating environment (pressure, temperature, or radiation)</t>
-  </si>
-  <si>
-    <t>(268000K4.01) Knowledge of (SF9 RW) RADWASTE SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic isolation of radiological release isolation valves</t>
-  </si>
-  <si>
-    <t>(259001K3.13) Knowledge of the effect that a loss or malfunction of the (SF2 FWS) FEEDWATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Digital feedwater control system</t>
-  </si>
-  <si>
-    <t>(239001A2.02) Ability to (a) predict the impacts of the following on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Steam demand malfunction and its effect on reactor pressure and power</t>
-  </si>
-  <si>
-    <t>(271000K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 OG) OFFGAS SYSTEM: (CFR: 41.5 / 41.7 / 45.7) Condenser air removal system</t>
-  </si>
-  <si>
-    <t>(226001K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Primary containment</t>
+    <t>(218000A4.01) Ability to manually operate and/or monitor the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) ADS valves</t>
+  </si>
+  <si>
+    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (291001K1.05) VALVES (CFR: 41.3) The significance of stem position (valve status) for gate valves</t>
+  </si>
+  <si>
+    <t>(203000K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 43.5 / 45.7 / 45.8) ADS</t>
+  </si>
+  <si>
+    <t>(212000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Logic channel arrangements</t>
+  </si>
+  <si>
+    <t>(263000A2.04) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Station blackout</t>
+  </si>
+  <si>
+    <t>(261000K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.7 / 45.7) Primary containment isolation system/nuclear steam supply shutoff system</t>
+  </si>
+  <si>
+    <t>(223002K2.01) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF Knowledge of electrical power supplies to the following: (CFR: 41.7) Logic power supplies</t>
+  </si>
+  <si>
+    <t>(215003K3.01) Knowledge of the effect that a loss or malfunction of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RPS</t>
+  </si>
+  <si>
+    <t>(205000A3.02) Ability to monitor automatic operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.7 / 45.7) Pump operation</t>
+  </si>
+  <si>
+    <t>(300000K4.05) Knowledge of (SF8 IA) INSTRUMENT AIR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Maintaining dry air</t>
+  </si>
+  <si>
+    <t>(209001A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Emergency generator loading</t>
+  </si>
+  <si>
+    <t>(217000A4.03) Ability to manually operate and/or monitor the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) System valves</t>
+  </si>
+  <si>
+    <t>(272000K2.06) (SF7, SF9 RMS) RADIATION MONITORING SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Area radiation monitors</t>
+  </si>
+  <si>
+    <t>(256000K3.01) Knowledge of the effect that a loss or malfunction of the (SF2 CDS) CONDENSATE SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Main turbine/main generator</t>
+  </si>
+  <si>
+    <t>(216000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION: (CFR: 41.5 / 45.3) Vessel temperature measurement</t>
+  </si>
+  <si>
+    <t>(215001K4.03) Knowledge of (SF7 TIP) TRAVERSING IN CORE PROBE design features and/or interlocks that provide for the following: (CFR: 41.7) Radiation shielding</t>
+  </si>
+  <si>
+    <t>(202001A1.10) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1, SF4 RS) RECIRCULATION SYSTEM including: (CFR: 41.5 / 45.5) Recirculation seal purge flows</t>
+  </si>
+  <si>
+    <t>(219000A4.04) Ability to manually operate and/or monitor the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE in the control room: (CFR: 41.7 / 45.5 to 45.8) Minimum flow valves</t>
+  </si>
+  <si>
+    <t>(290001) (SF5 SC) SECONDARY CONTAINMENT (G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(204000K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) SLCS</t>
+  </si>
+  <si>
+    <t>(201005K5.11) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6): (CFR: 41.5 to 41.7 / 45.3 / 45.5) Control rod motion</t>
+  </si>
+  <si>
+    <t>(245000A2.01) Ability to (a) predict the impacts of the following on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Turbine trip</t>
+  </si>
+  <si>
+    <t>(259001K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 FWS) FEEDWATER SYSTEM: (CFR: 41.7 / 45.7) Condensate system</t>
+  </si>
+  <si>
+    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
+  </si>
+  <si>
+    <t>(292008K1.14) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (HEATUP OPERATION) Describe three parameters to be monitored and controlled during heatup</t>
+  </si>
+  <si>
+    <t>(292003K1.01) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain the concept of subcritical multiplication</t>
+  </si>
+  <si>
+    <t>(293007K1.11) HEAT TRANSFER (CFR: 41.14) (CORE THERMAL POWER) Explain methods of calculating core thermal power</t>
+  </si>
+  <si>
+    <t>(293005K1.03) THERMODYNAMIC CYCLES (CFR: 41.14) Describe the steam quality/moisture effects on turbine integrity and efficiency</t>
+  </si>
+  <si>
+    <t>(293006K1.11) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Define net positive suction head (NPSH)</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295037EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Standby liquid control system tank level</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(700000AA2.02) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Generator voltage limitations</t>
+  </si>
+  <si>
+    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295021AA2.02) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) RHR/shutdown cooling system flow</t>
+  </si>
+  <si>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295036EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Water level in the affected area</t>
+  </si>
+  <si>
+    <t>(295033) (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(400000A2.02) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High/low surge tank level</t>
+  </si>
+  <si>
+    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(215005A2.08) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Faulty or erratic operation of detectors/systems </t>
+  </si>
+  <si>
+    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(234000K4.03) Knowledge of (SF8 FH) FUEL HANDLING design features and/or interlocks that provide for the following: (CFR: 41.7) Protection against inadvertently lifting radioactive components out of the water</t>
+  </si>
+  <si>
+    <t>(233000) (SF9 FPCCU) FUEL POOL COOLING/CLEANUP (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(286000A2.05) Ability to (a) predict the impacts of the following on the (SF8 FPS) FIRE PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Fire protection pump trips</t>
   </si>
   <si>
     <t>(G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(292004K1.10) REACTIVITY COEFFICIENTS (CFR: 41.1) Define the void coefficient of reactivity</t>
-  </si>
-  <si>
-    <t>(292008K1.04) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (STARTUP AND APPROACH TO CRITICALITY) Relate the concept of subcritical multiplication to predicted count rate and startup rate/period response for control rod withdrawal during the approach to criticality</t>
-  </si>
-  <si>
-    <t>(292002K1.11) NEUTRON LIFE CYCLE (CFR: 41.1) Define reactivity</t>
-  </si>
-  <si>
-    <t>(293005K1.06) THERMODYNAMIC CYCLES (CFR: 41.14) Describe how changes in system parameters affect thermodynamic efficiency</t>
-  </si>
-  <si>
-    <t>(293008K1.19) THERMAL HYDRAULICS (CFR: 41.14) (CORE INLET SUBCOOLING) Define core inlet subcooling</t>
-  </si>
-  <si>
-    <t>(293010K1.04) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State how the possibility of brittle fracture is minimized by operating limitations</t>
-  </si>
-  <si>
-    <t>(295030EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295016AA2.05) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Drywell pressure</t>
-  </si>
-  <si>
-    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295004AA2.01) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of DC power </t>
-  </si>
-  <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station’s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295006AA2.01) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295009AA2.01) Ability to determine and/or interpret the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295033) (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS (G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295014AA2.06) Ability to determine and/or interpret the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.10 / 43.5 / 45.13) Cold water injection</t>
-  </si>
-  <si>
-    <t>(212000A2.05) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Nuclear boiler instrument system failure</t>
-  </si>
-  <si>
-    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(263000A2.04) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Station blackout</t>
-  </si>
-  <si>
-    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(239002A2.02) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Leaking SRV</t>
-  </si>
-  <si>
-    <t>(234000K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 FH) FUEL HANDLING and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RCIS (BWR 6)</t>
-  </si>
-  <si>
-    <t>(286000A2.08) Ability to (a) predict the impacts of the following on the (SF8 FPS) FIRE PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Failure to actuate when required</t>
-  </si>
-  <si>
-    <t>(241000) (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
-  </si>
-  <si>
-    <t>(G2.2.19) EQUIPMENT CONTROL Knowledge of maintenance work order requirements (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
+    <t>(G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
   </si>
   <si>
     <t>(G2.4.38) EMERGENCY PROCEDURES / PLAN Ability to take actions required by the facility emergency plan implementing procedures, including supporting or acting as emergency coordinator (CFR: 41.10 / 43.5 / 45.11)</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>G</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>K3</t>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>K4</t>
   </si>
   <si>
     <t>A4</t>
@@ -355,15 +361,9 @@
     <t>K5</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
     <t>K6</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -391,211 +391,211 @@
     <t>295037</t>
   </si>
   <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
     <t>295016</t>
   </si>
   <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
     <t>295001</t>
   </si>
   <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>295034</t>
+    <t>295009</t>
+  </si>
+  <si>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>295022</t>
+  </si>
+  <si>
+    <t>295017</t>
   </si>
   <si>
     <t>295035</t>
   </si>
   <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>295007</t>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>262002</t>
   </si>
   <si>
     <t>264000</t>
   </si>
   <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>211000</t>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>263000</t>
   </si>
   <si>
     <t>261000</t>
   </si>
   <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
     <t>223002</t>
   </si>
   <si>
-    <t>215004</t>
-  </si>
-  <si>
     <t>215003</t>
   </si>
   <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>290003</t>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>202001</t>
   </si>
   <si>
     <t>219000</t>
   </si>
   <si>
-    <t>201003</t>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>295033</t>
+  </si>
+  <si>
+    <t>234000</t>
   </si>
   <si>
     <t>233000</t>
   </si>
   <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>226001</t>
-  </si>
-  <si>
-    <t>292004</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
     <t>286000</t>
-  </si>
-  <si>
-    <t>241000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D47" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D56" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1939,7 +1939,7 @@
         <v>2.9</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="D59" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D60" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D77" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,7 +2276,7 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D78" t="s">
         <v>105</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D79" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,7 +2310,7 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D80" t="s">
         <v>105</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D81" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,7 +2344,7 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D82" t="s">
         <v>105</v>
@@ -2364,7 +2364,7 @@
         <v>4.4</v>
       </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2381,7 +2381,7 @@
         <v>4.5</v>
       </c>
       <c r="D84" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,7 +2395,7 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D85" t="s">
         <v>105</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D86" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D87" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,7 +2446,7 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D88" t="s">
         <v>105</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="D89" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,7 +2480,7 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="D90" t="s">
         <v>105</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D91" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2517,7 +2517,7 @@
         <v>3.7</v>
       </c>
       <c r="D92" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="D93" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,7 +2548,7 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="D94" t="s">
         <v>105</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
